--- a/documents/multiWithdraw_example.xlsx
+++ b/documents/multiWithdraw_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epic/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epic/Desktop/BlockSoft/Projects/trusteeWalletAssets/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF92697-D609-4F46-A69F-B4E7DB5F10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AF6919-2C03-7F42-A8C2-8C1794FDE73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53160" yWindow="500" windowWidth="37520" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13660" yWindow="8920" windowWidth="37520" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1 - mass_payment_2020-12-1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>amount</t>
   </si>
@@ -46,13 +46,31 @@
     <t>ЗП Іванова І.А.</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>ЗП Шевчук Я.В.</t>
   </si>
   <si>
     <t>ЗП Антонюк Р.І.</t>
+  </si>
+  <si>
+    <t>0.00001</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>USDT</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ЗП Чумак Ю.Б.</t>
   </si>
 </sst>
 </file>
@@ -1312,10 +1330,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1346,10 +1364,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -1360,13 +1378,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1374,13 +1392,27 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/documents/multiWithdraw_example.xlsx
+++ b/documents/multiWithdraw_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epic/Desktop/BlockSoft/Projects/trusteeWalletAssets/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AF6919-2C03-7F42-A8C2-8C1794FDE73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB56362F-7934-AE49-8369-64322F26BA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13660" yWindow="8920" windowWidth="37520" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>amount</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>destination</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>ЗП Чумак Ю.Б.</t>
+  </si>
+  <si>
+    <t>comment (only for sender)</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1341,78 +1341,78 @@
     <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="61.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
